--- a/Kbo_Stats/testing.xlsx
+++ b/Kbo_Stats/testing.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,6 +423,21 @@
           <t>caseD_total</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>caseX_total</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>caseY_total</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_total</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,7 +467,7 @@
         <v>0.607</v>
       </c>
       <c r="I2">
-        <v>24.37</v>
+        <v>46.90000000000001</v>
       </c>
       <c r="J2">
         <v>2231</v>
@@ -465,6 +480,15 @@
       </c>
       <c r="M2">
         <v>50.18642180552327</v>
+      </c>
+      <c r="N2">
+        <v>792</v>
+      </c>
+      <c r="O2">
+        <v>830.41</v>
+      </c>
+      <c r="P2">
+        <v>2801.8</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +519,7 @@
         <v>0.585</v>
       </c>
       <c r="I3">
-        <v>20.59</v>
+        <v>50.38</v>
       </c>
       <c r="J3">
         <v>2078</v>
@@ -508,6 +532,15 @@
       </c>
       <c r="M3">
         <v>58.5550347843318</v>
+      </c>
+      <c r="N3">
+        <v>629.1</v>
+      </c>
+      <c r="O3">
+        <v>773.22</v>
+      </c>
+      <c r="P3">
+        <v>2941.6</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +571,7 @@
         <v>0.583</v>
       </c>
       <c r="I4">
-        <v>27.93</v>
+        <v>52.71</v>
       </c>
       <c r="J4">
         <v>2234</v>
@@ -551,6 +584,15 @@
       </c>
       <c r="M4">
         <v>53.35203329461116</v>
+      </c>
+      <c r="N4">
+        <v>717.3000000000001</v>
+      </c>
+      <c r="O4">
+        <v>1212.95</v>
+      </c>
+      <c r="P4">
+        <v>2812.6</v>
       </c>
     </row>
     <row r="5">
@@ -581,7 +623,7 @@
         <v>0.512</v>
       </c>
       <c r="I5">
-        <v>23.04</v>
+        <v>44.34999999999999</v>
       </c>
       <c r="J5">
         <v>2307</v>
@@ -594,6 +636,15 @@
       </c>
       <c r="M5">
         <v>62.23904319098227</v>
+      </c>
+      <c r="N5">
+        <v>338.4999999999999</v>
+      </c>
+      <c r="O5">
+        <v>794.66</v>
+      </c>
+      <c r="P5">
+        <v>2733</v>
       </c>
     </row>
     <row r="6">
@@ -624,7 +675,7 @@
         <v>0.464</v>
       </c>
       <c r="I6">
-        <v>14.21</v>
+        <v>32.14</v>
       </c>
       <c r="J6">
         <v>1950</v>
@@ -637,6 +688,15 @@
       </c>
       <c r="M6">
         <v>56.11699864936482</v>
+      </c>
+      <c r="N6">
+        <v>664.2</v>
+      </c>
+      <c r="O6">
+        <v>903.13</v>
+      </c>
+      <c r="P6">
+        <v>2727.2</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +727,7 @@
         <v>0.432</v>
       </c>
       <c r="I7">
-        <v>18.68</v>
+        <v>29.65</v>
       </c>
       <c r="J7">
         <v>2130</v>
@@ -680,6 +740,15 @@
       </c>
       <c r="M7">
         <v>65.24526493767324</v>
+      </c>
+      <c r="N7">
+        <v>548.3000000000001</v>
+      </c>
+      <c r="O7">
+        <v>1204.84</v>
+      </c>
+      <c r="P7">
+        <v>2801.8</v>
       </c>
     </row>
     <row r="8">
@@ -710,7 +779,7 @@
         <v>0.431</v>
       </c>
       <c r="I8">
-        <v>25.34</v>
+        <v>34.03</v>
       </c>
       <c r="J8">
         <v>2221</v>
@@ -723,6 +792,15 @@
       </c>
       <c r="M8">
         <v>60.30630489123204</v>
+      </c>
+      <c r="N8">
+        <v>562.5</v>
+      </c>
+      <c r="O8">
+        <v>996.8</v>
+      </c>
+      <c r="P8">
+        <v>2715.2</v>
       </c>
     </row>
     <row r="9">
@@ -753,7 +831,7 @@
         <v>0.392</v>
       </c>
       <c r="I9">
-        <v>19.39</v>
+        <v>29.03</v>
       </c>
       <c r="J9">
         <v>2095</v>
@@ -766,6 +844,15 @@
       </c>
       <c r="M9">
         <v>62.7104682279546</v>
+      </c>
+      <c r="N9">
+        <v>156.7</v>
+      </c>
+      <c r="O9">
+        <v>1071.68</v>
+      </c>
+      <c r="P9">
+        <v>2534.6</v>
       </c>
     </row>
   </sheetData>

--- a/Kbo_Stats/testing.xlsx
+++ b/Kbo_Stats/testing.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,6 +438,46 @@
           <t>caseZ_total</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseA_rankdif</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseB_rankdif</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rankdif</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>caseD_rankdif</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>caseX_rankdif</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>caseY_rankdif</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rankdif</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -490,6 +530,30 @@
       <c r="P2">
         <v>2801.8</v>
       </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -542,6 +606,30 @@
       <c r="P3">
         <v>2941.6</v>
       </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>6</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -594,6 +682,30 @@
       <c r="P4">
         <v>2812.6</v>
       </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -646,6 +758,30 @@
       <c r="P5">
         <v>2733</v>
       </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -698,6 +834,30 @@
       <c r="P6">
         <v>2727.2</v>
       </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -750,6 +910,30 @@
       <c r="P7">
         <v>2801.8</v>
       </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -802,6 +986,30 @@
       <c r="P8">
         <v>2715.2</v>
       </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -853,6 +1061,30 @@
       </c>
       <c r="P9">
         <v>2534.6</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
